--- a/DMSNewVSale_2025-11-17_14-56.xlsx
+++ b/DMSNewVSale_2025-11-17_14-56.xlsx
@@ -80,6 +80,21 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
   </si>
   <si>
@@ -107,9 +122,6 @@
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -195,9 +207,6 @@
   </si>
   <si>
     <t>1:3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>560.00</t>
@@ -1133,18 +1142,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1153,14 +1162,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1170,11 +1179,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>15</v>
@@ -1186,14 +1195,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1203,14 +1212,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1219,14 +1228,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1236,14 +1245,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1252,14 +1261,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1276,7 +1285,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1309,7 +1318,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1325,7 +1334,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1335,14 +1344,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1351,14 +1360,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1368,14 +1377,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1384,14 +1393,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1417,14 +1426,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1434,11 +1443,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1450,14 +1459,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1467,14 +1476,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1490,24 +1499,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1516,20 +1525,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1540,7 +1549,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1556,7 +1565,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1589,7 +1598,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1606,7 +1615,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1622,7 +1631,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1632,14 +1641,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1648,14 +1657,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1694,18 +1703,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1714,20 +1723,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1754,7 +1763,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,7 +1796,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1804,7 +1813,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1820,7 +1829,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1846,31 +1855,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1879,28 +1888,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>15</v>
@@ -1912,20 +1921,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1936,7 +1945,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1952,13 +1961,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1969,7 +1978,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1985,13 +1994,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2002,7 +2011,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2018,13 +2027,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2035,7 +2044,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2044,68 +2053,101 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
       </c>
-      <c t="s" r="Q38" s="12">
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>24</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>25</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>123</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="39" ht="26.25" customHeight="1">
-      <c r="N39" s="13">
-        <v>3075.4299999999998</v>
-      </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>122</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>123</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>124</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    <row r="40" ht="25.5" customHeight="1">
+      <c r="N40" s="13">
+        <v>3105.9299999999998</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>125</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>126</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>127</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2274,10 +2316,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
